--- a/src/assets/formats/leaves.xlsx
+++ b/src/assets/formats/leaves.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -403,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -443,16 +443,16 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
